--- a/resources/Formula.xlsx
+++ b/resources/Formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\WFPS\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35117BE7-553B-4269-94DB-C5EF713809A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB9DFD4-9C28-4AF3-96C7-D298D2440D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12510" yWindow="4080" windowWidth="9075" windowHeight="7005" xr2:uid="{C5FA9B6D-FAEE-4AC1-95FE-BC539186D3BD}"/>
   </bookViews>
@@ -100,8 +100,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -183,15 +183,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +509,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,58 +543,59 @@
     </row>
     <row r="4" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>20000</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>2000</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
+        <f>(B$8*B$7)/(B$7+B$8)</f>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="E8" s="3">
+        <f>C$2*(0/D8)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="4">
-        <f>C$2*(D8/(D8+B$8))</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f>D$3*(E8/C$2)</f>
         <v>0</v>
       </c>
@@ -603,92 +604,92 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>330</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
-        <f>(B$7*B9)/(B$7+B9)</f>
-        <v>324.64338416133791</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" ref="E9:E12" si="0">C$2*(D9/(D9+B$8))</f>
-        <v>0.69826491747778241</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:D12" si="0">(B$8*B$7)/(B$7+B$8)</f>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="E9" s="3">
+        <f>C$2*(B9/(D9+B9))</f>
+        <v>0.82637729549248751</v>
+      </c>
+      <c r="F9" s="5">
         <f>D$3*(E9/C$2)</f>
-        <v>142.8650021159543</v>
+        <v>169.07679465776295</v>
       </c>
       <c r="G9">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>620</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
-        <f>(B$7*(B10+B9))/(B$7+B10+B9)</f>
-        <v>906.92124105011931</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>1.5599343185550079</v>
-      </c>
-      <c r="F10" s="6">
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="E10" s="3">
+        <f>C$2*((B10+B9)/(D10+B10+B9))</f>
+        <v>1.8152866242038215</v>
+      </c>
+      <c r="F10" s="5">
         <f>D$3*(E10/C$2)</f>
-        <v>319.16256157635462</v>
+        <v>371.40764331210187</v>
       </c>
       <c r="G10">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1000</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5">
-        <f>(B$7*(B11+B10+B9))/(B$7+B11+B10+B9)</f>
-        <v>1776.7653758542142</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>2.3522316043425815</v>
-      </c>
-      <c r="F11" s="6">
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="E11" s="3">
+        <f>C$2*((B11+B10+B9)/(D11+B11+B10+B9))</f>
+        <v>2.6958525345622117</v>
+      </c>
+      <c r="F11" s="5">
         <f>D$3*(E11/C$2)</f>
-        <v>481.26658624849216</v>
+        <v>551.57142857142856</v>
       </c>
       <c r="G11">
         <v>600</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>3300</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5">
-        <f>(B$7*(B12+B11+B10+B9))/(B$7+B12+B12+B11+B10+B9)</f>
-        <v>3677.7583187390542</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>3.2387415175817398</v>
-      </c>
-      <c r="F12" s="6">
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="E12" s="3">
+        <f>C$2*((B12+B11+B10+B9)/(D12+B12+B11+B10+B9))</f>
+        <v>3.7951807228915664</v>
+      </c>
+      <c r="F12" s="5">
         <f>D$3*(E12/C$2)</f>
-        <v>662.64651449722396</v>
+        <v>776.49397590361446</v>
       </c>
       <c r="G12">
         <v>800</v>

--- a/resources/Formula.xlsx
+++ b/resources/Formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\WFPS\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB9DFD4-9C28-4AF3-96C7-D298D2440D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62C654F-08A6-4C1E-A1F4-FFF34E1FD960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12510" yWindow="4080" windowWidth="9075" windowHeight="7005" xr2:uid="{C5FA9B6D-FAEE-4AC1-95FE-BC539186D3BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C5FA9B6D-FAEE-4AC1-95FE-BC539186D3BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>P/B</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Const.</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.3</t>
   </si>
 </sst>
 </file>
@@ -506,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C64390-9794-427B-94E1-D0E845428C9B}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +704,21 @@
         <v>800</v>
       </c>
     </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:F5"/>
